--- a/BCIS301 – S1 2019 – Gap-Analysis - Jerry Wang, Kieran Abelen, Hanke Zhang.xlsx
+++ b/BCIS301 – S1 2019 – Gap-Analysis - Jerry Wang, Kieran Abelen, Hanke Zhang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 2\BCIS301---AMIC700---Gap-Analysis-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD73E4-00F3-4D1B-B653-5A1542FE2605}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6121CD68-F55C-4EDC-874C-DF02DE157CCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Location</t>
   </si>
@@ -80,6 +80,504 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>2 x staff look after tech to schools program</t>
+  </si>
+  <si>
+    <t>Not enough staff</t>
+  </si>
+  <si>
+    <t>Relly complex process
+TEC tool and TRIBAL used to track – manually inputted info across the two systems</t>
+  </si>
+  <si>
+    <t>complex process</t>
+  </si>
+  <si>
+    <t>Trying some new things to enable the team to work together</t>
+  </si>
+  <si>
+    <t>New mates and work</t>
+  </si>
+  <si>
+    <t>Have lots of tools
+Legacy systems and attitudes prevail
+Want to do new things, but don’t always have the support</t>
+  </si>
+  <si>
+    <t>Complex work environment</t>
+  </si>
+  <si>
+    <t>Ara Use mainly Android based phones
+Personal – has an apple phone
+Needs to carry both phones
+Looking at a dual sim card apple option
+Personal preference would be to use apple</t>
+  </si>
+  <si>
+    <t>Not the same moblie device</t>
+  </si>
+  <si>
+    <t>Office 365 – general tool used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good software implementing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-Drive – Staff networked hard drive for storage </t>
+  </si>
+  <si>
+    <t>Easy for staff to manage their fies</t>
+  </si>
+  <si>
+    <t>Cloud – One Drive (personal / business)
+Introduced to OneDrive by the business
+Used oneDrive personal first
+Had to swap to business version
+Painful process to swap between the two</t>
+  </si>
+  <si>
+    <t>Good way to save the work</t>
+  </si>
+  <si>
+    <t>One-Note
+Outlook – used for both communication and storage
+Sharing information is most important for the team
+Shared space to work without being in the same physical space
+Need to ensure that everyone is looking at the same thing
+Live documents need to be used not attachments as attachments may have been changed</t>
+  </si>
+  <si>
+    <t>Good way to share the work</t>
+  </si>
+  <si>
+    <t>Team are spread out geographically
+Hard drive and S-drive are not always accessible when on the road
+Struggled with the change to Ara (from CPIT and Aoraki Poly) to deal with the additional geographical challenge – now have teams in Oamaru and Timaru
+People in Oamaru can feel ignored
+Staff in Oamaru need to be kept as up to date as those in Christchurch</t>
+  </si>
+  <si>
+    <t>The campus is too far away to update the progress in time.</t>
+  </si>
+  <si>
+    <t>Skype for business alternative
+Tracks stats as to which staff are using – he is the biggest user
+2 x weekly team meetings are held across Zoom
+Everyone Zooms in
+Can see/talk to each other – using Webcams
+Can share screens – ie pull up live documents that everyone can see an interact with
+Can give control of that screen to others</t>
+  </si>
+  <si>
+    <t>staff can communicate easily, but the same calss student do not have method to communicate easily.</t>
+  </si>
+  <si>
+    <t>One Note:
+-	Moving away from 
+-	Not always that useful</t>
+  </si>
+  <si>
+    <t>Some software not useful</t>
+  </si>
+  <si>
+    <t>Coggle:
+-	Online collaborative mind map
+-	Can do live interaction with it
+-	Use to plan projects remotely
+o	People can add/change things
+o	Use to collect ideas without everyone needing to be in the same place
+-	Free version was being used
+o	Not secure
+o	Have to pay to make it private
+o	Free software not always private</t>
+  </si>
+  <si>
+    <t>Helpful software but not secure.</t>
+  </si>
+  <si>
+    <t>Trello:
+-	Workflow software
+-	Used to write courses
+-	Allows interaction
+-	Can flag errors in online courses
+o	Both students and tutors can interact with it
+Remote Teaching:
+-	Students do self paced learning
+-	All on moodle – mixture of face to face/online
+-	Not teaching – facilitating learning
+o	Course content is live online and needs to be able to be updated /amended easily and quickly
+-	Instead of emailing stuff jump into trello and place into a project
+-	Can use with a phone
+-	Can put deadlines onto things
+-	Can add files/images</t>
+  </si>
+  <si>
+    <t>Good teching method for students and tutors</t>
+  </si>
+  <si>
+    <t>Trello is not sanctioned by Ara
+-	Shadow IT – programs used while not sanctioned because they are better that what is supposed to be used
+o	Have access to Microsoft teams, but this is not integrated with SharePoint
+	Don’t know how to use it
+	Trello is easier, so that is what is used
+-	It was an adventure getting people on board with using trello
+o	Gets excited about new technology
+o	Not everyone was on board at first
+o	Everyone likes it now it’s shown that it works</t>
+  </si>
+  <si>
+    <t>Not all the software in the computer used by Ara</t>
+  </si>
+  <si>
+    <t>Panopto:
+-	Used to create updates from the boss for the team
+-	Includes a powerpoint of slides (basic headings)
+-	Does a voice recording for detail
+-	Allows segmentation of each slide, so staff can watch as much or little as they want
+-	Staff can comment on what is there
+-	More personal than sending an email
+-	Can communicate emotion through the voice when using sound recording</t>
+  </si>
+  <si>
+    <t>Some software have a litte help, but it can replaced by other software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would happen if you couldn’t use trello?
+-	In a group looking at the future of tech for Ara
+-	Would be hard to stop using trello
+-	If Ara brought in something better that would work it would be used
+o	Trello is a tool, but have learned to work in the digital shared space through the use of it
+o	Team would be ready to embrace something similar
+-	Get around the rules as the tools are cloud based, and don’t need to be installed
+o	IT dept control the software that can be controlled
+-	Moving to office 365 next year </t>
+  </si>
+  <si>
+    <t>It is hard to stop use some software, and these software do not need install. And it will have update in next year</t>
+  </si>
+  <si>
+    <t>How cluttered are your files?
+-	One drive doesn’t replace the S drive – still individual drives
+o	Heading towards using sharepoint
+o	If using sharepoint a proper naming convention is required
+o	Issue in one drive with the number of characters available in the file pathway
+o	Need to bear that in mind when naming files
+-	Naming convention is a big thing
+-	S-drive fills up
+o	Always full
+o	Doesn’t let you save things when full
+-	S-drive stores department stuff/course content/student files
+o	More high level information is only stored in s drive</t>
+  </si>
+  <si>
+    <t>Limited storage drives can't satisfy more and more files. It will make the driver look messy.</t>
+  </si>
+  <si>
+    <t>How does having systems in different locations affect you?
+-	Each location is owned by Ara
+o	Leased buildings in greater Christchurch area
+o	Ara owns all the technology
+o	All on the fibre network
+o	All linked online
+o	IT maintains all systems
+-	Occasional drop out of online systems at campuses
+o	Generally oK for students</t>
+  </si>
+  <si>
+    <t>It is easy for people to use the device of the Ara</t>
+  </si>
+  <si>
+    <t>Do you clash with IT over shadow programs?
+-	Haven’t asked about the programs used
+o	Knows IT will take time / paperwork to get it approved
+o	No cost to use initially ( but privacy may be an issue)
+o	Not putting student info/personal stuff/confidential information on Trello
+-	Early adopter 
+o	Team is open to the use of new technology
+-	Some people are afraid of new technology
+o	Adopts out of frustration 
+	Have to convince people the benefits of using the new technology
+	Need to help them through the transition
+-	Zoom – better quality than skype
+o	Easier to collaborate</t>
+  </si>
+  <si>
+    <t>New technologies take a period of review and require a high level of information protection so that they don't worry about privacy leaks. At the same time, we need to convince people to accept new technologies.</t>
+  </si>
+  <si>
+    <t>Role Description:
+- Looks after the ethics in the computing department
+- Students go through the ethics process for projects
+- When anyone is doing research ethics clearance is required-
+o Both students and staff need ethics clearance
+o Not always a straight forward issue
+- Have to look at anonymity and confidentiality
+o If there is a conflict of interest 
+o Is there anything that will potentially make participants uncomfortable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teachers must have a reasonable division of labor.</t>
+  </si>
+  <si>
+    <t>Conflicts of interest:
+- Hard when students are participating in research projects
+- Have to give a good reason as to why students are involved
+- Ethics committee has the final say
+- Students can be biased when providing information to students
+- Research should be able to be replicated – participants should not be biased
+- When interviewing people they will have a bias depending on what you ask them
+o For example if a department is going through a leadership change and the staff are asked opinions on leadership</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The tutor should treat all students fairly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidentiality:
+• Interview notes/recordings should not be publically available
+• Can what the participants of the study say be traced back to the,?
+• Can people access and look at the raw data?
+o Data needs to be kept stores, but securely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The data should be very secure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you control plagiarism?
+- Turn-it-in – online tool
+- Used to check if a student has plagiarised work
+- Will know if an assignment is a repeat
+- Report is made to the operations manager and head of department if there is any suspected plagiarism
+- If severely compromised (two students in a class), the head of department will make a call as o who has copied what
+- Students will be interviewed prior to making conclusions
+- This process is separate to the Ethics committee
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treating cheating should be taken seriously. It is important to follow the review steps and not to infer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How else do you use Technology in your role?
+- Email
+- TRIBAL
+o To track students attendance/progress
+o To look after level 7 students enrolment
+- MOODLE
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are many ways to keep in touch with students.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco:
+- Takes up the bulk of time 
+- Has been here for 20years – since the start of the CISCO academy
+- Cisco academy trains all the CISCO instructors in NZ
+- All Upskill sessions/new tutors come onsite to Ara to train
+- On global advisory group for CISCO training
+o Involves a conference call with people from all over the world
+o Ideas suggested get picked up
+o Change how the content is delivered as a result of these conversations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Academy of Sciences has contributed a lot and has trained all Cisco teachers in New Zealand. So it is very important to Ara.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expensive to run the CISCO 
+o $35 to 40k per year required from Ara finance
+o Careful planning is needed to get this funding
+o Need to build a use case each year for funding
+o Need to demonstrate Return on investment for the stakeholders (students)
+o Business case developed each year is a one page document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating the Academy of Sciences is very expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lots of background work goes on to keep things running
+o Need to build new equipment each year
+- CISCO department is designed to make money for Ara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Academy of Sciences needs to run a lot of equipment, but it can also bring benefits to Ara.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The academy runs its own network
+o Doesn’t run on the Ara network
+o Can do things on the tech labs network that would not be ok on the Ara network (due to security)
+ Look after their own security
+ Penetration test done annually (as is Ara, but separately)
+ 50 page security report is generated that needs to be actioned
+- Expensive switches and routers are needed
+o Ara network equipment is recycled into tech labs when it is replaced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Academy has its own independent network, which means it is safer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMWARE – Virtualised Computer Servers
+- Net lab allows students to remotely access on-site hardware
+o Not simulated access – it is actual machines that can be accessed from anywhere
+- Virtualised machines
+o Sustainable networking
+o Each server runs 100’s of machines
+o Gives the department a sustainability tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are very advanced technologies that allow students to access their computers anytime, anywhere. The capacity of the server is also large.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Putty:
+- Terminal emulator
+- Used to configure networks
+Likes to play with new toys – keep the job interesting
+- Research is hugely important
+o Internet of things, software networking, security
+o Use a lot of the equipment when not teaching to experiment and reaseach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Making the learning network very interesting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security:
+- An external firm looks after security
+- Annual probe to test security of the network
+- Report shows an vulnerabilities in the network
+- Have to fix any errors, and report back on the fix
+- Ara Security team look after the Ara network security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have very good network security. Ara is regularly checked for safety.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is your vision for the department in the next three years?
+- Would like to attract more networking students
+- About to get a big marketing injection
+o Have access to the CISCO marketing tool kit
+o Will share the marketing cost between Ara and cisco
+- Need more physical space to accommodate students/equipment
+o Moving to S/N block over the next five years to get more space
+- Have to convince Ara that the money should be spent in networking
+o Have to prove return on investment
+ What benefit will additional equipment have for students
+ Better equipment attracts more students to the course
+- Looking to move away from purchasing hardware, to cloud based networks
+o Virtualised devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More resources are needed, more investment is needed, and more advanced equipment is needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What issues are caused by having two networks?
+- If students on the tech lab network want to access any content on the Ara network they have to get out onto the internet and come back
+o The separation of the two networks is important for security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a certain level of security, but the steps for students are more cumbersome.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How much reliance on Physical Hardware is there – where does the virtual hardware come in?
+- 300 virtual machines can be supported by six hardware servers
+- Some of these physical servers are reaching the end of their lie
+- Trying to scale down the physical hardware
+o Can replace those machines with either one big server, or get more smaller ones again
+o Networking needs the actual hardware onsite
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The hardware requirements are very large.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does the hardware need to be onsite?
+- Net lab storage is on the main server
+o Can be put onto a smaller server (too big)
+o Cant separate the virtual machines from the storage on the main server, as this causes too much lag time
+o Because the rest of the lab is hardware, there’s a lag for the connection to the virtual machines
+- CISCO labs need to be on actual hardware
+o Unavoidable
+o Needs to be stored onsite &amp; cooled
+- Selling the CISCO courses internationally
+o Hardware on-site will service students in another country remote accessing the machines
+o Will be able to use Skype ect to talk to students
+o Have to justify the cost to the network
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">What is needed to set up the international courses?
+- Courses will be set up as training schemes – individual courses offered rather than an overall qualification
+- Will profit from one student per scheme
+- Scaling:
+o If more students will need more hardware
+o Need to generate the income to keep buying equipment
+- Wouldn’t let the needs of these students interfere with the quality offered to students on-site
+- More than 15 extra international students accessing courses remotely would mean that more equipment is required
+o No idea how many will register
+o Can unlock courses from diplomas
+o Extra work is involved in screening candidates
+o Aimed at industry looking to up-skill (no set times)
+</t>
+  </si>
+  <si>
+    <t>More resources are needed, more investment is needed, and more study plan for students and more advanced equipment is needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What, in your opinion, is the Vision of Ara?
+- To teach remotely really well
+- To deiver blended courses
+- To deliver remote courses
+- Nothing is too hard for remote courses
+- Remote delivery needs to be flexible, and done well
+o Need to adapt to the new ways that students are learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ara needs better distance learning and more learning plans and methods.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community Computing</t>
+  </si>
+  <si>
+    <t>Ethics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -171,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -206,11 +704,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -219,6 +723,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -250,12 +757,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -263,6 +764,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -307,11 +814,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90C0FEE6-81D6-4E65-BFB3-45C5FD53F6C1}" name="Table13" displayName="Table13" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A2:E1048576" xr:uid="{0FA42A31-C09F-4A95-85AB-F5D34F3FE157}"/>
-  <tableColumns count="5">
-    <tableColumn id="9" xr3:uid="{63AAD324-E562-4AAA-A25E-2367846DC04C}" name="Ref" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5DC8784B-1E25-459B-B274-4C1BC9CC9F5D}" name="Location" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90C0FEE6-81D6-4E65-BFB3-45C5FD53F6C1}" name="Table13" displayName="Table13" ref="A2:F1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F1048576" xr:uid="{0FA42A31-C09F-4A95-85AB-F5D34F3FE157}"/>
+  <tableColumns count="6">
+    <tableColumn id="9" xr3:uid="{63AAD324-E562-4AAA-A25E-2367846DC04C}" name="Ref" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5DC8784B-1E25-459B-B274-4C1BC9CC9F5D}" name="Location" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{12AF813D-93D1-4BCA-8955-445901C38269}" name="Summary" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{A5A640DE-D816-49CF-9282-D716539BE5AA}" name="Factor" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{A804B3A9-4AB4-4805-999B-FECDC0FB6508}" name="Is this a Gap" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{5B25B68A-8AF8-4DC6-929F-57AE2910C1EC}" name="Meta-Factor" dataDxfId="0"/>
@@ -321,19 +829,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46000187-4DF8-42D1-8E61-1CCD9B4F33A7}" name="Table1" displayName="Table1" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46000187-4DF8-42D1-8E61-1CCD9B4F33A7}" name="Table1" displayName="Table1" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:G1048576" xr:uid="{4564A83B-E795-414E-A15C-CC2E67E7E1BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G3">
     <sortCondition ref="G2:G3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="9" xr3:uid="{40CD8F54-5D7D-4314-8086-F0C4E8CE116C}" name="Ref" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9F9E6DB9-0D32-4F05-BFF0-DB43451BF75C}" name="Source" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AFF1E055-213C-4064-BD74-3CC6EDC4A75C}" name="Objective/Goal" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{40CD8F54-5D7D-4314-8086-F0C4E8CE116C}" name="Ref" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9F9E6DB9-0D32-4F05-BFF0-DB43451BF75C}" name="Source" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{AFF1E055-213C-4064-BD74-3CC6EDC4A75C}" name="Objective/Goal" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{B8DD23A4-B58B-4653-AE3F-31948D216593}" name="Current State" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{89EF021C-AA72-430D-89FA-0C2123CED66E}" name="Future State" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{427DC161-A0D9-41D9-A494-C3575733222B}" name="Gap" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{68C072C1-5BCD-4A05-B3ED-01263C1BAD6B}" name="Action Plan" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{89EF021C-AA72-430D-89FA-0C2123CED66E}" name="Future State" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{427DC161-A0D9-41D9-A494-C3575733222B}" name="Gap" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{68C072C1-5BCD-4A05-B3ED-01263C1BAD6B}" name="Action Plan" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,29 +1110,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C2334F-B6B5-4D73-9541-9F59E2BBE368}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="11" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="11" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="21">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="21">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,17 +1141,436 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="12"/>
+      <c r="B3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="B4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="B5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="B6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75">
+      <c r="B7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="B8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="B9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75">
+      <c r="B10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="120">
+      <c r="B11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="135">
+      <c r="B12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="135">
+      <c r="B13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="B14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="165">
+      <c r="B15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="255">
+      <c r="B16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="180">
+      <c r="B17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="150">
+      <c r="B18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="180">
+      <c r="B19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="240">
+      <c r="B20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="135">
+      <c r="B21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="225">
+      <c r="B22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="150">
+      <c r="B23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="180">
+      <c r="B24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="105">
+      <c r="B25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="165">
+      <c r="B26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="105">
+      <c r="B27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="180">
+      <c r="B28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="120">
+      <c r="B29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="75">
+      <c r="B30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="165">
+      <c r="B31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="135">
+      <c r="B32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="135">
+      <c r="B33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="90">
+      <c r="B34" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="270">
+      <c r="B35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="90">
+      <c r="B36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="165">
+      <c r="B37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="240">
+      <c r="B38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="255">
+      <c r="B39" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="105">
+      <c r="B40" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -657,7 +1585,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -967,22 +1895,15 @@
     <row r="152" ht="50.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E1048576" xr:uid="{E780DF94-0951-416B-849F-BE9D622B22EE}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E780DF94-0951-416B-849F-BE9D622B22EE}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:E1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/BCIS301 – S1 2019 – Gap-Analysis - Jerry Wang, Kieran Abelen, Hanke Zhang.xlsx
+++ b/BCIS301 – S1 2019 – Gap-Analysis - Jerry Wang, Kieran Abelen, Hanke Zhang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 2\BCIS301---AMIC700---Gap-Analysis-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6121CD68-F55C-4EDC-874C-DF02DE157CCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE15A17-DC0A-4B1B-8569-ED440D510F45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>Location</t>
   </si>
@@ -578,6 +578,9 @@
   <si>
     <t>Interview</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objective</t>
   </si>
 </sst>
 </file>
@@ -714,12 +717,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -761,9 +770,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -814,34 +820,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90C0FEE6-81D6-4E65-BFB3-45C5FD53F6C1}" name="Table13" displayName="Table13" ref="A2:F1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F1048576" xr:uid="{0FA42A31-C09F-4A95-85AB-F5D34F3FE157}"/>
-  <tableColumns count="6">
-    <tableColumn id="9" xr3:uid="{63AAD324-E562-4AAA-A25E-2367846DC04C}" name="Ref" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5DC8784B-1E25-459B-B274-4C1BC9CC9F5D}" name="Location" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{12AF813D-93D1-4BCA-8955-445901C38269}" name="Summary" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{A5A640DE-D816-49CF-9282-D716539BE5AA}" name="Factor" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A804B3A9-4AB4-4805-999B-FECDC0FB6508}" name="Is this a Gap" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5B25B68A-8AF8-4DC6-929F-57AE2910C1EC}" name="Meta-Factor" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90C0FEE6-81D6-4E65-BFB3-45C5FD53F6C1}" name="Table13" displayName="Table13" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:G1048576" xr:uid="{0FA42A31-C09F-4A95-85AB-F5D34F3FE157}"/>
+  <tableColumns count="7">
+    <tableColumn id="9" xr3:uid="{63AAD324-E562-4AAA-A25E-2367846DC04C}" name="Ref" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5DC8784B-1E25-459B-B274-4C1BC9CC9F5D}" name="Location" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{898AF53C-731A-4429-A427-95B8C88B4C28}" name="Objective" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{12AF813D-93D1-4BCA-8955-445901C38269}" name="Summary" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{A5A640DE-D816-49CF-9282-D716539BE5AA}" name="Factor" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{A804B3A9-4AB4-4805-999B-FECDC0FB6508}" name="Is this a Gap" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{5B25B68A-8AF8-4DC6-929F-57AE2910C1EC}" name="Meta-Factor" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46000187-4DF8-42D1-8E61-1CCD9B4F33A7}" name="Table1" displayName="Table1" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46000187-4DF8-42D1-8E61-1CCD9B4F33A7}" name="Table1" displayName="Table1" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:G1048576" xr:uid="{4564A83B-E795-414E-A15C-CC2E67E7E1BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G3">
     <sortCondition ref="G2:G3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="9" xr3:uid="{40CD8F54-5D7D-4314-8086-F0C4E8CE116C}" name="Ref" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9F9E6DB9-0D32-4F05-BFF0-DB43451BF75C}" name="Source" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{AFF1E055-213C-4064-BD74-3CC6EDC4A75C}" name="Objective/Goal" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B8DD23A4-B58B-4653-AE3F-31948D216593}" name="Current State" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{89EF021C-AA72-430D-89FA-0C2123CED66E}" name="Future State" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{427DC161-A0D9-41D9-A494-C3575733222B}" name="Gap" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{68C072C1-5BCD-4A05-B3ED-01263C1BAD6B}" name="Action Plan" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{40CD8F54-5D7D-4314-8086-F0C4E8CE116C}" name="Ref" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9F9E6DB9-0D32-4F05-BFF0-DB43451BF75C}" name="Source" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AFF1E055-213C-4064-BD74-3CC6EDC4A75C}" name="Objective/Goal" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B8DD23A4-B58B-4653-AE3F-31948D216593}" name="Current State" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{89EF021C-AA72-430D-89FA-0C2123CED66E}" name="Future State" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{427DC161-A0D9-41D9-A494-C3575733222B}" name="Gap" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{68C072C1-5BCD-4A05-B3ED-01263C1BAD6B}" name="Action Plan" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1110,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C2334F-B6B5-4D73-9541-9F59E2BBE368}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1120,20 +1127,21 @@
   <cols>
     <col min="1" max="1" width="9.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="11" customWidth="1"/>
-    <col min="5" max="6" width="19.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="11" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="21">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="21">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1141,434 +1149,475 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="12"/>
       <c r="B3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:7" ht="45">
       <c r="B4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:7" ht="30">
       <c r="B5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:7" ht="45">
       <c r="B6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75">
+    <row r="7" spans="1:7" ht="75">
       <c r="B7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:7" ht="30">
       <c r="B8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:7" ht="30">
       <c r="B9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75">
+    <row r="10" spans="1:7" ht="75">
       <c r="B10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="120">
+    <row r="11" spans="1:7" ht="120">
       <c r="B11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="135">
+    <row r="12" spans="1:7" ht="135">
       <c r="B12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="135">
+    <row r="13" spans="1:7" ht="135">
       <c r="B13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:7" ht="45">
       <c r="B14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="165">
+    <row r="15" spans="1:7" ht="165">
       <c r="B15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="255">
+    <row r="16" spans="1:7" ht="255">
       <c r="B16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="180">
+    <row r="17" spans="2:5" ht="180">
       <c r="B17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="150">
+    <row r="18" spans="2:5" ht="150">
       <c r="B18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="180">
+    <row r="19" spans="2:5" ht="180">
       <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="240">
+    <row r="20" spans="2:5" ht="240">
       <c r="B20" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="135">
+    <row r="21" spans="2:5" ht="135">
       <c r="B21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="225">
+    <row r="22" spans="2:5" ht="225">
       <c r="B22" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="150">
+    <row r="23" spans="2:5" ht="150">
       <c r="B23" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="180">
+    <row r="24" spans="2:5" ht="180">
       <c r="B24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="105">
+    <row r="25" spans="2:5" ht="105">
       <c r="B25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="165">
+    <row r="26" spans="2:5" ht="165">
       <c r="B26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="105">
+    <row r="27" spans="2:5" ht="105">
       <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="180">
+    <row r="28" spans="2:5" ht="180">
       <c r="B28" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="120">
+    <row r="29" spans="2:5" ht="120">
       <c r="B29" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="75">
+    <row r="30" spans="2:5" ht="75">
       <c r="B30" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="165">
+    <row r="31" spans="2:5" ht="165">
       <c r="B31" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="135">
+    <row r="32" spans="2:5" ht="135">
       <c r="B32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="135">
+    <row r="33" spans="2:5" ht="135">
       <c r="B33" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="90">
+    <row r="34" spans="2:5" ht="90">
       <c r="B34" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="270">
+    <row r="35" spans="2:5" ht="270">
       <c r="B35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="90">
+    <row r="36" spans="2:5" ht="90">
       <c r="B36" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="165">
+    <row r="37" spans="2:5" ht="165">
       <c r="B37" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="240">
+    <row r="38" spans="2:5" ht="240">
       <c r="B38" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="255">
+    <row r="39" spans="2:5" ht="255">
       <c r="B39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="105">
+    <row r="40" spans="2:5" ht="105">
       <c r="B40" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1586,7 +1635,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BCIS301 – S1 2019 – Gap-Analysis - Jerry Wang, Kieran Abelen, Hanke Zhang.xlsx
+++ b/BCIS301 – S1 2019 – Gap-Analysis - Jerry Wang, Kieran Abelen, Hanke Zhang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIS301 _ AMIC700\Assignment 2\BCIS301---AMIC700---Gap-Analysis-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE15A17-DC0A-4B1B-8569-ED440D510F45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D1F779-7EEB-4704-B687-F107F2DC43F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>Location</t>
   </si>
@@ -99,17 +99,11 @@
   </si>
   <si>
     <t>Trying some new things to enable the team to work together</t>
-  </si>
-  <si>
-    <t>New mates and work</t>
   </si>
   <si>
     <t>Have lots of tools
 Legacy systems and attitudes prevail
 Want to do new things, but don’t always have the support</t>
-  </si>
-  <si>
-    <t>Complex work environment</t>
   </si>
   <si>
     <t>Ara Use mainly Android based phones
@@ -117,9 +111,6 @@
 Needs to carry both phones
 Looking at a dual sim card apple option
 Personal preference would be to use apple</t>
-  </si>
-  <si>
-    <t>Not the same moblie device</t>
   </si>
   <si>
     <t>Office 365 – general tool used</t>
@@ -581,6 +572,21 @@
   </si>
   <si>
     <t>Objective</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Not the same mobile device</t>
+  </si>
+  <si>
+    <t>Familiar Tool</t>
+  </si>
+  <si>
+    <t>Technological uniformity</t>
   </si>
 </sst>
 </file>
@@ -672,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -710,17 +716,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -778,6 +778,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -820,35 +823,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90C0FEE6-81D6-4E65-BFB3-45C5FD53F6C1}" name="Table13" displayName="Table13" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A2:G1048576" xr:uid="{0FA42A31-C09F-4A95-85AB-F5D34F3FE157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90C0FEE6-81D6-4E65-BFB3-45C5FD53F6C1}" name="Table13" displayName="Table13" ref="A2:G1048575" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:G1048575" xr:uid="{0FA42A31-C09F-4A95-85AB-F5D34F3FE157}"/>
   <tableColumns count="7">
     <tableColumn id="9" xr3:uid="{63AAD324-E562-4AAA-A25E-2367846DC04C}" name="Ref" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{5DC8784B-1E25-459B-B274-4C1BC9CC9F5D}" name="Location" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{898AF53C-731A-4429-A427-95B8C88B4C28}" name="Objective" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{12AF813D-93D1-4BCA-8955-445901C38269}" name="Summary" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A5A640DE-D816-49CF-9282-D716539BE5AA}" name="Factor" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A804B3A9-4AB4-4805-999B-FECDC0FB6508}" name="Is this a Gap" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{5B25B68A-8AF8-4DC6-929F-57AE2910C1EC}" name="Meta-Factor" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{898AF53C-731A-4429-A427-95B8C88B4C28}" name="Objective" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{12AF813D-93D1-4BCA-8955-445901C38269}" name="Summary" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{A5A640DE-D816-49CF-9282-D716539BE5AA}" name="Factor" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A804B3A9-4AB4-4805-999B-FECDC0FB6508}" name="Is this a Gap" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{5B25B68A-8AF8-4DC6-929F-57AE2910C1EC}" name="Meta-Factor" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46000187-4DF8-42D1-8E61-1CCD9B4F33A7}" name="Table1" displayName="Table1" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46000187-4DF8-42D1-8E61-1CCD9B4F33A7}" name="Table1" displayName="Table1" ref="A2:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G1048576" xr:uid="{4564A83B-E795-414E-A15C-CC2E67E7E1BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G3">
     <sortCondition ref="G2:G3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="9" xr3:uid="{40CD8F54-5D7D-4314-8086-F0C4E8CE116C}" name="Ref" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9F9E6DB9-0D32-4F05-BFF0-DB43451BF75C}" name="Source" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AFF1E055-213C-4064-BD74-3CC6EDC4A75C}" name="Objective/Goal" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B8DD23A4-B58B-4653-AE3F-31948D216593}" name="Current State" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{89EF021C-AA72-430D-89FA-0C2123CED66E}" name="Future State" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{427DC161-A0D9-41D9-A494-C3575733222B}" name="Gap" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{68C072C1-5BCD-4A05-B3ED-01263C1BAD6B}" name="Action Plan" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{40CD8F54-5D7D-4314-8086-F0C4E8CE116C}" name="Ref" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9F9E6DB9-0D32-4F05-BFF0-DB43451BF75C}" name="Source" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{AFF1E055-213C-4064-BD74-3CC6EDC4A75C}" name="Objective/Goal" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B8DD23A4-B58B-4653-AE3F-31948D216593}" name="Current State" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{89EF021C-AA72-430D-89FA-0C2123CED66E}" name="Future State" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{427DC161-A0D9-41D9-A494-C3575733222B}" name="Gap" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{68C072C1-5BCD-4A05-B3ED-01263C1BAD6B}" name="Action Plan" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1117,13 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C2334F-B6B5-4D73-9541-9F59E2BBE368}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
@@ -1133,7 +1136,7 @@
     <col min="6" max="7" width="19.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -1164,467 +1167,506 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45">
+      <c r="F3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="B4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
+      <c r="F4" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+        <v>92</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="75">
-      <c r="B7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="B8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="B9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="75">
-      <c r="B10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="120">
-      <c r="B11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="135">
-      <c r="B12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="135">
-      <c r="B13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="45">
-      <c r="B14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="165">
-      <c r="B15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="14" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="255">
-      <c r="B16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="14" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1">
+      <c r="B17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="180">
-      <c r="B17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="14" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="150">
-      <c r="B18" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="14" t="s">
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="180">
-      <c r="B19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="14" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="240">
-      <c r="B20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="14" t="s">
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="135">
-      <c r="B21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="225">
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="150">
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="180">
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1">
       <c r="B24" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="105">
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1">
       <c r="B25" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="165">
+    </row>
+    <row r="26" spans="2:5" ht="30" customHeight="1">
       <c r="B26" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="105">
+    </row>
+    <row r="27" spans="2:5" ht="30" customHeight="1">
       <c r="B27" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="180">
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1">
       <c r="B28" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="120">
+    </row>
+    <row r="29" spans="2:5" ht="30" customHeight="1">
       <c r="B29" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="75">
+    </row>
+    <row r="30" spans="2:5" ht="30" customHeight="1">
       <c r="B30" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="165">
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1">
       <c r="B31" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="135">
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1">
       <c r="B32" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="135">
+    </row>
+    <row r="33" spans="2:5" ht="30" customHeight="1">
       <c r="B33" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="90">
+    </row>
+    <row r="34" spans="2:5" ht="30" customHeight="1">
       <c r="B34" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="270">
+    </row>
+    <row r="35" spans="2:5" ht="30" customHeight="1">
       <c r="B35" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="90">
+    </row>
+    <row r="36" spans="2:5" ht="30" customHeight="1">
       <c r="B36" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="165">
+    </row>
+    <row r="37" spans="2:5" ht="30" customHeight="1">
       <c r="B37" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="240">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" customHeight="1">
       <c r="B38" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="255">
+    <row r="39" spans="2:5" ht="30" customHeight="1">
       <c r="B39" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" s="14"/>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="105">
-      <c r="B40" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1635,7 +1677,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
